--- a/biology/Botanique/Rhabdodendraceae/Rhabdodendraceae.xlsx
+++ b/biology/Botanique/Rhabdodendraceae/Rhabdodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Rhabdodendracées est constituée de plantes dicotylédones ; elle ne comprend que 2 ou 3 espèces du genre Rhabdodendron.
 Ce sont des petits arbres à feuillage persistant, des régions tropicales d'Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Rhabdodendron dérivé du grec ράβδος / rabdos, bâton ou verge, et
 δένδρον / dendron, arbre, se référant au fruit inséré dans le réceptacle élargi (torus) de la fleur.
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a connu beaucoup de remaniements taxonomiques avant la création de la famille des Rhabdodendraceae.
 Le système Cronquist de 1981 avant placé le genre dans l'ordre des Rosales.
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 août 2015)[1] et DELTA Angio           (14 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 août 2015) et DELTA Angio           (14 août 2015) :
 genre Rhabdodendron (en)</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 août 2015)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 août 2015) :
 genre Rhabdodendron (en)
 Rhabdodendron amazonicum
 Rhabdodendron macrophyllum</t>
